--- a/i_codebooks/D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT.xlsx
+++ b/i_codebooks/D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A96C98-248C-4993-835B-F0072FC1C255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>How many observations per UoO</t>
-  </si>
-  <si>
-    <t>1 + as many as the matched non-MS pregnancies</t>
   </si>
   <si>
     <t>NxUoO</t>
@@ -335,11 +333,14 @@
   <si>
     <t>binary</t>
   </si>
+  <si>
+    <t>1 + as many as the matched MS non-pregnancies</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -594,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,9 +681,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,21 +898,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="91.44140625" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -924,15 +928,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -940,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.8">
+    <row r="5" spans="1:2" ht="47.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -948,75 +952,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
+    <row r="6" spans="1:2" ht="31.5">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="14.4">
+    <row r="11" spans="1:2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="14.4">
+    <row r="12" spans="1:2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="14.4">
+    <row r="13" spans="1:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="14.4">
+    <row r="14" spans="1:2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="14.4">
+    <row r="15" spans="1:2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="14.4">
+    <row r="16" spans="1:2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" ht="14.4">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" ht="14.4">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" ht="14.4">
+    <row r="19" spans="2:2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" ht="14.4">
+    <row r="20" spans="2:2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" ht="14.4">
+    <row r="21" spans="2:2">
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1">
@@ -3966,362 +3970,362 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K956"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="64.6640625" customWidth="1"/>
-    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="69.75" customHeight="1">
       <c r="A5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>100</v>
-      </c>
       <c r="D6" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.2">
-      <c r="A10" s="32" t="s">
+      <c r="C10" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="30">
+      <c r="A12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.2">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.2">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30">
+      <c r="A14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.2">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
+      <c r="A15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.2">
-      <c r="A15" s="36" t="s">
+      <c r="B15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30">
+      <c r="A16" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.2">
-      <c r="A16" s="36" t="s">
+      <c r="B16" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.2">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.2">
-      <c r="A18" s="36" t="s">
+      <c r="B18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.2">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.2">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.2">
-      <c r="A21" s="36" t="s">
+      <c r="B21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.2">
-      <c r="A22" s="36" t="s">
+      <c r="B22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.2">
-      <c r="A23" s="36" t="s">
+      <c r="B23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.2">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.2">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.2">
-      <c r="A26" s="36" t="s">
+      <c r="B26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.2">
-      <c r="A27" s="36" t="s">
+      <c r="B27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.2">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.2">
-      <c r="A29" s="36" t="s">
-        <v>95</v>
-      </c>
       <c r="B29" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
@@ -5258,75 +5262,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="20"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="14.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="20"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="14.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="20"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="20"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="14.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="14.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="20"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="14.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="14.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="20"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="14.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="20"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="14.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="20"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="14.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="20"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="14.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="20"/>
       <c r="B13" s="1"/>
     </row>
@@ -6317,62 +6321,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="22">
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -6383,18 +6387,18 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -6405,18 +6409,18 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="14.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -6427,18 +6431,18 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="1:12" ht="14.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -6449,18 +6453,18 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="14.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="22">
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -6471,18 +6475,18 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="1:12" ht="14.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="22">
         <v>5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -6493,102 +6497,102 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="1:12" ht="14.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="24">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="24">
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="24">
         <v>3</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="24">
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="24">
         <v>5</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="27">
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -6601,16 +6605,16 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="27">
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -6623,16 +6627,16 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="27">
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>

--- a/i_codebooks/D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT.xlsx
+++ b/i_codebooks/D4_DU_matched_MS_PREGNANCY_COHORT_to_MS_COHORT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A96C98-248C-4993-835B-F0072FC1C255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00867B9-6011-4FA2-9C9D-56EFAC16DEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>medatata_name</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>pregnancy_id</t>
-  </si>
-  <si>
-    <t>identifier of the MS pregnancy if ord_match == 0, and of the matched pregnancy if ord_match &gt; 0</t>
-  </si>
-  <si>
-    <t>if ord_match == 0, this is equal to MS_pregnancy_id</t>
   </si>
   <si>
     <t>person_id</t>
@@ -336,6 +330,9 @@
   <si>
     <t>1 + as many as the matched MS non-pregnancies</t>
   </si>
+  <si>
+    <t>birth_date</t>
+  </si>
 </sst>
 </file>
 
@@ -344,11 +341,32 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,82 +613,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,10 +698,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -928,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -957,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -3973,17 +3994,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -4032,7 +4053,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -4042,290 +4063,284 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>32</v>
+      <c r="A4" s="44" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="69.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="30">
       <c r="A12" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30">
       <c r="A13" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30">
       <c r="A14" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
       <c r="A15" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30">
       <c r="A16" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="A25" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
@@ -5277,13 +5292,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6358,25 +6373,25 @@
         <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="22">
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -6389,16 +6404,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -6411,16 +6426,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -6433,16 +6448,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -6455,16 +6470,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22">
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -6477,16 +6492,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="22">
         <v>5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -6499,100 +6514,100 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="24">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="24">
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="24">
         <v>3</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="24">
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="24">
         <v>5</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="27">
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -6605,16 +6620,16 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="C17" s="27">
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -6627,16 +6642,16 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="27">
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
